--- a/SLK.xlsx
+++ b/SLK.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1057CD3A-95AF-4F9A-ACFD-4199027B3A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04AC431-8104-4007-9D65-64C88D89DE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="2" r:id="rId1"/>
     <sheet name="UKA" sheetId="1" r:id="rId2"/>
+    <sheet name="MYD" sheetId="3" r:id="rId3"/>
+    <sheet name="LAU" sheetId="4" r:id="rId4"/>
+    <sheet name="MBA" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>ASDA</t>
   </si>
@@ -44,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,20 +58,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -164,25 +153,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,142 +461,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="5">
         <v>14</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="5">
         <v>16</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="5">
         <v>18</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="5">
         <v>20</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="5">
         <v>22</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="5">
         <v>24</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="5">
         <v>26</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="5">
         <v>28</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="5">
         <v>30</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="11">
         <v>41300</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="11">
         <v>41200</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="11">
         <v>40900</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>40300</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="12">
         <v>39800</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="12">
         <v>39100</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="12">
         <v>38900</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="12">
         <v>38200</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="12">
         <v>37500</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="13">
         <v>37000</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>40800</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>40400</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>40100</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>39900</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>39500</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="8">
         <v>39200</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="8">
         <v>38900</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="8">
         <v>38600</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="8">
         <v>38100</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>37300</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="9">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="9">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="B4" s="5">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="5">
         <v>42600</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>42200</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>41500</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>41200</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="5">
         <v>41100</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="5">
         <v>40200</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="6">
         <v>39900</v>
       </c>
     </row>
@@ -624,7 +610,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,104 +622,461 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="14">
         <v>20</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="14">
         <v>22</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="14">
         <v>24</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="14">
         <v>26</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="14">
         <v>28</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="14">
         <v>30</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
-        <v>42400</v>
-      </c>
-      <c r="C2" s="6">
-        <v>42200</v>
-      </c>
-      <c r="D2" s="6">
-        <v>42000</v>
-      </c>
-      <c r="E2" s="6">
-        <v>41800</v>
-      </c>
-      <c r="F2" s="7">
-        <v>41700</v>
-      </c>
-      <c r="G2" s="7">
-        <v>41600</v>
-      </c>
-      <c r="H2" s="7">
-        <v>41500</v>
+      <c r="B2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="14">
+        <v>43000</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>41500</v>
-      </c>
-      <c r="C3" s="4">
-        <v>41500</v>
-      </c>
-      <c r="D3" s="4">
-        <v>41400</v>
-      </c>
-      <c r="E3" s="4">
-        <v>41400</v>
-      </c>
-      <c r="F3" s="4">
-        <v>41300</v>
-      </c>
-      <c r="G3" s="4">
-        <v>41000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>40900</v>
+      <c r="B3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43000</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6">
-        <v>42500</v>
-      </c>
-      <c r="C4" s="6">
-        <v>42300</v>
-      </c>
-      <c r="D4" s="6">
-        <v>42100</v>
-      </c>
-      <c r="E4" s="6">
-        <v>41800</v>
-      </c>
-      <c r="F4" s="6">
-        <v>41600</v>
-      </c>
-      <c r="G4" s="6">
-        <v>41300</v>
-      </c>
-      <c r="H4" s="6">
-        <v>40900</v>
+      <c r="B4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BDE24A-4EFD-487B-AF39-309A07004783}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14">
+        <v>20</v>
+      </c>
+      <c r="C1" s="14">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14">
+        <v>24</v>
+      </c>
+      <c r="E1" s="14">
+        <v>26</v>
+      </c>
+      <c r="F1" s="14">
+        <v>28</v>
+      </c>
+      <c r="G1" s="14">
+        <v>30</v>
+      </c>
+      <c r="H1" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02387F30-C59A-4A0D-A81C-18B00DEACA04}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14">
+        <v>20</v>
+      </c>
+      <c r="C1" s="14">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14">
+        <v>24</v>
+      </c>
+      <c r="E1" s="14">
+        <v>26</v>
+      </c>
+      <c r="F1" s="14">
+        <v>28</v>
+      </c>
+      <c r="G1" s="14">
+        <v>30</v>
+      </c>
+      <c r="H1" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C6F184-CBE0-4D87-AD1A-407A02973E7D}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14">
+        <v>20</v>
+      </c>
+      <c r="C1" s="14">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14">
+        <v>24</v>
+      </c>
+      <c r="E1" s="14">
+        <v>26</v>
+      </c>
+      <c r="F1" s="14">
+        <v>28</v>
+      </c>
+      <c r="G1" s="14">
+        <v>30</v>
+      </c>
+      <c r="H1" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="14">
+        <v>43000</v>
       </c>
     </row>
   </sheetData>

--- a/SLK.xlsx
+++ b/SLK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04AC431-8104-4007-9D65-64C88D89DE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FB86BE-3FB1-4FB7-A99F-2360468F39CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,11 +149,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -169,6 +182,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,44 +621,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="15">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14">
         <v>20</v>
       </c>
-      <c r="C1" s="14">
+      <c r="F1" s="14">
         <v>22</v>
       </c>
-      <c r="D1" s="14">
+      <c r="G1" s="14">
         <v>24</v>
       </c>
-      <c r="E1" s="14">
+      <c r="H1" s="14">
         <v>26</v>
       </c>
-      <c r="F1" s="14">
+      <c r="I1" s="14">
         <v>28</v>
       </c>
-      <c r="G1" s="14">
+      <c r="J1" s="14">
         <v>30</v>
       </c>
-      <c r="H1" s="14">
+      <c r="K1" s="14">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -669,8 +692,17 @@
       <c r="H2" s="14">
         <v>43000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -695,8 +727,17 @@
       <c r="H3" s="3">
         <v>43000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,6 +760,15 @@
         <v>43000</v>
       </c>
       <c r="H4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="14">
         <v>43000</v>
       </c>
     </row>
@@ -729,41 +779,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BDE24A-4EFD-487B-AF39-309A07004783}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="15">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14">
         <v>20</v>
       </c>
-      <c r="C1" s="14">
+      <c r="F1" s="14">
         <v>22</v>
       </c>
-      <c r="D1" s="14">
+      <c r="G1" s="14">
         <v>24</v>
       </c>
-      <c r="E1" s="14">
+      <c r="H1" s="14">
         <v>26</v>
       </c>
-      <c r="F1" s="14">
+      <c r="I1" s="14">
         <v>28</v>
       </c>
-      <c r="G1" s="14">
+      <c r="J1" s="14">
         <v>30</v>
       </c>
-      <c r="H1" s="14">
+      <c r="K1" s="14">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -788,8 +847,17 @@
       <c r="H2" s="14">
         <v>43000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -814,8 +882,17 @@
       <c r="H3" s="3">
         <v>43000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,6 +915,15 @@
         <v>43000</v>
       </c>
       <c r="H4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="14">
         <v>43000</v>
       </c>
     </row>
@@ -848,41 +934,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02387F30-C59A-4A0D-A81C-18B00DEACA04}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="15">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14">
         <v>20</v>
       </c>
-      <c r="C1" s="14">
+      <c r="F1" s="14">
         <v>22</v>
       </c>
-      <c r="D1" s="14">
+      <c r="G1" s="14">
         <v>24</v>
       </c>
-      <c r="E1" s="14">
+      <c r="H1" s="14">
         <v>26</v>
       </c>
-      <c r="F1" s="14">
+      <c r="I1" s="14">
         <v>28</v>
       </c>
-      <c r="G1" s="14">
+      <c r="J1" s="14">
         <v>30</v>
       </c>
-      <c r="H1" s="14">
+      <c r="K1" s="14">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -907,8 +1002,17 @@
       <c r="H2" s="14">
         <v>43000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -933,8 +1037,17 @@
       <c r="H3" s="3">
         <v>43000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,6 +1070,15 @@
         <v>43000</v>
       </c>
       <c r="H4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="14">
         <v>43000</v>
       </c>
     </row>
@@ -967,41 +1089,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C6F184-CBE0-4D87-AD1A-407A02973E7D}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="15">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14">
         <v>20</v>
       </c>
-      <c r="C1" s="14">
+      <c r="F1" s="14">
         <v>22</v>
       </c>
-      <c r="D1" s="14">
+      <c r="G1" s="14">
         <v>24</v>
       </c>
-      <c r="E1" s="14">
+      <c r="H1" s="14">
         <v>26</v>
       </c>
-      <c r="F1" s="14">
+      <c r="I1" s="14">
         <v>28</v>
       </c>
-      <c r="G1" s="14">
+      <c r="J1" s="14">
         <v>30</v>
       </c>
-      <c r="H1" s="14">
+      <c r="K1" s="14">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1026,8 +1157,17 @@
       <c r="H2" s="14">
         <v>43000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="14">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="14">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1052,8 +1192,17 @@
       <c r="H3" s="3">
         <v>43000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,6 +1225,15 @@
         <v>43000</v>
       </c>
       <c r="H4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="14">
         <v>43000</v>
       </c>
     </row>

--- a/SLK.xlsx
+++ b/SLK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FB86BE-3FB1-4FB7-A99F-2360468F39CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC1D444-6805-4FA9-8918-6B315DA62AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="2" r:id="rId1"/>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -176,13 +176,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2CA10B-788E-410F-9E8A-7D6801E4A3FC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -510,38 +512,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>41300</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>41200</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>40900</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>40300</v>
       </c>
-      <c r="F2" s="12">
-        <v>39800</v>
-      </c>
-      <c r="G2" s="12">
-        <v>39100</v>
-      </c>
-      <c r="H2" s="12">
-        <v>38900</v>
-      </c>
-      <c r="I2" s="12">
+      <c r="F2" s="11">
+        <v>39700</v>
+      </c>
+      <c r="G2" s="11">
+        <v>39200</v>
+      </c>
+      <c r="H2" s="11">
+        <v>38800</v>
+      </c>
+      <c r="I2" s="16">
         <v>38200</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="16">
         <v>37500</v>
       </c>
-      <c r="K2" s="13">
-        <v>37000</v>
+      <c r="K2" s="17">
+        <v>37100</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
@@ -549,34 +551,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>40800</v>
+        <v>40900</v>
       </c>
       <c r="C3" s="8">
+        <v>40600</v>
+      </c>
+      <c r="D3" s="8">
         <v>40400</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>40100</v>
       </c>
-      <c r="E3" s="8">
-        <v>39900</v>
-      </c>
       <c r="F3" s="8">
-        <v>39500</v>
+        <v>39700</v>
       </c>
       <c r="G3" s="8">
         <v>39200</v>
       </c>
       <c r="H3" s="8">
-        <v>38900</v>
-      </c>
-      <c r="I3" s="8">
-        <v>38600</v>
-      </c>
-      <c r="J3" s="8">
-        <v>38100</v>
-      </c>
-      <c r="K3" s="9">
-        <v>37300</v>
+        <v>38800</v>
+      </c>
+      <c r="I3" s="14">
+        <v>38300</v>
+      </c>
+      <c r="J3" s="14">
+        <v>37800</v>
+      </c>
+      <c r="K3" s="15">
+        <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
@@ -636,34 +638,34 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>14</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>16</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>18</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="12">
         <v>20</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="12">
         <v>22</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="12">
         <v>24</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="12">
         <v>26</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="12">
         <v>28</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="12">
         <v>30</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="12">
         <v>32</v>
       </c>
     </row>
@@ -671,34 +673,34 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="C2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="D2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="E2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="F2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="G2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="H2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="I2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="J2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="K2" s="14">
+      <c r="B2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="12">
         <v>43000</v>
       </c>
     </row>
@@ -741,34 +743,34 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="F4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="G4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="I4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="J4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="K4" s="14">
+      <c r="B4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="12">
         <v>43000</v>
       </c>
     </row>
@@ -791,34 +793,34 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>14</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>16</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>18</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="12">
         <v>20</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="12">
         <v>22</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="12">
         <v>24</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="12">
         <v>26</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="12">
         <v>28</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="12">
         <v>30</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="12">
         <v>32</v>
       </c>
     </row>
@@ -826,34 +828,34 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="C2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="D2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="E2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="F2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="G2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="H2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="I2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="J2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="K2" s="14">
+      <c r="B2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="12">
         <v>43000</v>
       </c>
     </row>
@@ -896,34 +898,34 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="F4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="G4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="I4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="J4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="K4" s="14">
+      <c r="B4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="12">
         <v>43000</v>
       </c>
     </row>
@@ -946,34 +948,34 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>14</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>16</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>18</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="12">
         <v>20</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="12">
         <v>22</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="12">
         <v>24</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="12">
         <v>26</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="12">
         <v>28</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="12">
         <v>30</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="12">
         <v>32</v>
       </c>
     </row>
@@ -981,34 +983,34 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="C2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="D2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="E2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="F2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="G2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="H2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="I2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="J2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="K2" s="14">
+      <c r="B2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="12">
         <v>43000</v>
       </c>
     </row>
@@ -1051,34 +1053,34 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="F4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="G4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="I4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="J4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="K4" s="14">
+      <c r="B4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="12">
         <v>43000</v>
       </c>
     </row>
@@ -1091,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C6F184-CBE0-4D87-AD1A-407A02973E7D}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
@@ -1101,34 +1103,34 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>14</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>16</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>18</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="12">
         <v>20</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="12">
         <v>22</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="12">
         <v>24</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="12">
         <v>26</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="12">
         <v>28</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="12">
         <v>30</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="12">
         <v>32</v>
       </c>
     </row>
@@ -1136,34 +1138,34 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="C2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="D2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="E2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="F2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="G2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="H2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="I2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="J2" s="14">
-        <v>43000</v>
-      </c>
-      <c r="K2" s="14">
+      <c r="B2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="12">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="12">
         <v>43000</v>
       </c>
     </row>
@@ -1206,34 +1208,34 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="F4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="G4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="I4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="J4" s="14">
-        <v>43000</v>
-      </c>
-      <c r="K4" s="14">
+      <c r="B4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="12">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="12">
         <v>43000</v>
       </c>
     </row>

--- a/SLK.xlsx
+++ b/SLK.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC1D444-6805-4FA9-8918-6B315DA62AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98080884-7002-4A68-8277-2ED199BF520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="2" r:id="rId1"/>
-    <sheet name="UKA" sheetId="1" r:id="rId2"/>
-    <sheet name="MYD" sheetId="3" r:id="rId3"/>
-    <sheet name="LAU" sheetId="4" r:id="rId4"/>
-    <sheet name="MBA" sheetId="5" r:id="rId5"/>
+    <sheet name="KIS" sheetId="6" r:id="rId2"/>
+    <sheet name="EBB" sheetId="7" r:id="rId3"/>
+    <sheet name="JRO" sheetId="8" r:id="rId4"/>
+    <sheet name="ZNZ" sheetId="9" r:id="rId5"/>
+    <sheet name="UKA" sheetId="1" r:id="rId6"/>
+    <sheet name="MYD" sheetId="3" r:id="rId7"/>
+    <sheet name="LAU" sheetId="4" r:id="rId8"/>
+    <sheet name="MBA" sheetId="5" r:id="rId9"/>
+    <sheet name="NBO" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
   <si>
     <t>ASDA</t>
   </si>
@@ -42,12 +47,15 @@
   <si>
     <t>TEMP</t>
   </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +83,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -96,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -162,15 +184,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -181,13 +248,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{EF7761E1-159E-45A3-95FB-5BEE15E659BB}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2CD7FE06-5E3C-4244-A305-FBC740F1ABBF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2CA10B-788E-410F-9E8A-7D6801E4A3FC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -477,143 +559,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="3">
         <v>14</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="3">
         <v>16</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="3">
         <v>18</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="3">
         <v>20</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="3">
         <v>22</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="3">
         <v>24</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="3">
         <v>26</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="3">
         <v>28</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="3">
         <v>30</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="4">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>41300</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>41200</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>40900</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>40300</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>39700</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="9">
         <v>39200</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>38800</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="12">
         <v>38200</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="12">
         <v>37500</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="13">
         <v>37100</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>40900</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>40600</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>40400</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>40100</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>39700</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>39200</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>38800</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="3">
         <v>38300</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="3">
         <v>37800</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="4">
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="5">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="5">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="3">
         <v>42600</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>42200</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>41500</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>41200</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>41100</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>40200</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>39900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C82B4E6-DA84-4FD1-9EE3-6DA8EAECC4F5}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="23">
+        <v>14</v>
+      </c>
+      <c r="C1" s="23">
+        <v>16</v>
+      </c>
+      <c r="D1" s="23">
+        <v>18</v>
+      </c>
+      <c r="E1" s="23">
+        <v>20</v>
+      </c>
+      <c r="F1" s="23">
+        <v>22</v>
+      </c>
+      <c r="G1" s="23">
+        <v>24</v>
+      </c>
+      <c r="H1" s="23">
+        <v>26</v>
+      </c>
+      <c r="I1" s="23">
+        <v>28</v>
+      </c>
+      <c r="J1" s="23">
+        <v>30</v>
+      </c>
+      <c r="K1" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26">
+        <v>42700</v>
+      </c>
+      <c r="C2" s="26">
+        <v>42400</v>
+      </c>
+      <c r="D2" s="26">
+        <v>42200</v>
+      </c>
+      <c r="E2" s="26">
+        <v>42000</v>
+      </c>
+      <c r="F2" s="26">
+        <v>41400</v>
+      </c>
+      <c r="G2" s="26">
+        <v>40900</v>
+      </c>
+      <c r="H2" s="26">
+        <v>40200</v>
+      </c>
+      <c r="I2" s="26">
+        <v>39700</v>
+      </c>
+      <c r="J2" s="26">
+        <v>39200</v>
+      </c>
+      <c r="K2" s="27">
+        <v>38600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="23">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="23">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="23">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="23">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="23">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="23">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="23">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="23">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="28">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="23">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="23">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="23">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="23">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="23">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="23">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="23">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="23">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="24">
+        <v>43000</v>
       </c>
     </row>
   </sheetData>
@@ -622,11 +863,598 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FD115-7EED-4F71-90FF-37711B889F0C}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3">
+        <v>28</v>
+      </c>
+      <c r="J1" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="19">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="12">
+        <v>42900</v>
+      </c>
+      <c r="G2" s="12">
+        <v>42800</v>
+      </c>
+      <c r="H2" s="12">
+        <v>42600</v>
+      </c>
+      <c r="I2" s="12">
+        <v>42500</v>
+      </c>
+      <c r="J2" s="13">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="4">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FF91F5-D052-4749-BBE5-6174E0F836E5}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14">
+        <v>20</v>
+      </c>
+      <c r="F1" s="14">
+        <v>22</v>
+      </c>
+      <c r="G1" s="14">
+        <v>24</v>
+      </c>
+      <c r="H1" s="14">
+        <v>26</v>
+      </c>
+      <c r="I1" s="14">
+        <v>28</v>
+      </c>
+      <c r="J1" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="21">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="21">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="21">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="21">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="21">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="17">
+        <v>42800</v>
+      </c>
+      <c r="I2" s="17">
+        <v>42400</v>
+      </c>
+      <c r="J2" s="18">
+        <v>41700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="14">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="14">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="14">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="14">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="14">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="14">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="14">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="15">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="15">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16756E7-4A49-4965-B704-1C49D3B4556A}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51758887-8486-44F7-B8D8-A749F5730E1F}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10">
+        <v>20</v>
+      </c>
+      <c r="F1" s="10">
+        <v>22</v>
+      </c>
+      <c r="G1" s="10">
+        <v>24</v>
+      </c>
+      <c r="H1" s="10">
+        <v>26</v>
+      </c>
+      <c r="I1" s="10">
+        <v>28</v>
+      </c>
+      <c r="J1" s="10">
+        <v>30</v>
+      </c>
+      <c r="K1" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="10">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="10">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="10">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -638,34 +1466,34 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="11">
         <v>14</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>16</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>18</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="10">
         <v>20</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="10">
         <v>22</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="10">
         <v>24</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="10">
         <v>26</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="10">
         <v>28</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="10">
         <v>30</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="10">
         <v>32</v>
       </c>
     </row>
@@ -673,69 +1501,69 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="C2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="D2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="E2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="F2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="G2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="H2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="I2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="J2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="B2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="10">
         <v>43000</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="G3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="B3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="10">
         <v>43000</v>
       </c>
     </row>
@@ -743,34 +1571,34 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="F4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="G4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="I4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="J4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="B4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="10">
         <v>43000</v>
       </c>
     </row>
@@ -779,12 +1607,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BDE24A-4EFD-487B-AF39-309A07004783}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,34 +1621,34 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="11">
         <v>14</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>16</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>18</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="10">
         <v>20</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="10">
         <v>22</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="10">
         <v>24</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="10">
         <v>26</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="10">
         <v>28</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="10">
         <v>30</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="10">
         <v>32</v>
       </c>
     </row>
@@ -828,69 +1656,69 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="C2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="D2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="E2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="F2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="G2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="H2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="I2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="J2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="B2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="10">
         <v>43000</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="G3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="B3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="10">
         <v>43000</v>
       </c>
     </row>
@@ -898,34 +1726,34 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="F4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="G4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="I4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="J4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="B4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="10">
         <v>43000</v>
       </c>
     </row>
@@ -934,12 +1762,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02387F30-C59A-4A0D-A81C-18B00DEACA04}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -948,34 +1776,34 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="11">
         <v>14</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>16</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>18</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="10">
         <v>20</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="10">
         <v>22</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="10">
         <v>24</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="10">
         <v>26</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="10">
         <v>28</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="10">
         <v>30</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="10">
         <v>32</v>
       </c>
     </row>
@@ -983,69 +1811,69 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="C2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="D2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="E2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="F2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="G2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="H2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="I2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="J2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="B2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="10">
         <v>43000</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="G3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="B3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="10">
         <v>43000</v>
       </c>
     </row>
@@ -1053,34 +1881,34 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="F4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="G4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="I4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="J4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="B4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="10">
         <v>43000</v>
       </c>
     </row>
@@ -1089,12 +1917,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C6F184-CBE0-4D87-AD1A-407A02973E7D}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1103,34 +1931,34 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="11">
         <v>14</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>16</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>18</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="10">
         <v>20</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="10">
         <v>22</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="10">
         <v>24</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="10">
         <v>26</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="10">
         <v>28</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="10">
         <v>30</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="10">
         <v>32</v>
       </c>
     </row>
@@ -1138,69 +1966,69 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="C2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="D2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="E2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="F2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="G2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="H2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="I2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="J2" s="12">
-        <v>43000</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="B2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="10">
         <v>43000</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="G3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>43000</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="B3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="10">
         <v>43000</v>
       </c>
     </row>
@@ -1208,34 +2036,34 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="F4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="G4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="I4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="J4" s="12">
-        <v>43000</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="B4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="10">
         <v>43000</v>
       </c>
     </row>
